--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.10455201828814</v>
+        <v>10.379369</v>
       </c>
       <c r="H2">
-        <v>6.10455201828814</v>
+        <v>31.138107</v>
       </c>
       <c r="I2">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449884</v>
       </c>
       <c r="J2">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449883</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>33.8855762133903</v>
+        <v>0.04023833333333333</v>
       </c>
       <c r="N2">
-        <v>33.8855762133903</v>
+        <v>0.120715</v>
       </c>
       <c r="O2">
-        <v>0.9757166953961254</v>
+        <v>0.001153919673903629</v>
       </c>
       <c r="P2">
-        <v>0.9757166953961254</v>
+        <v>0.001153919673903629</v>
       </c>
       <c r="Q2">
-        <v>206.8562626643084</v>
+        <v>0.4176485096116667</v>
       </c>
       <c r="R2">
-        <v>206.8562626643084</v>
+        <v>3.758836586505</v>
       </c>
       <c r="S2">
-        <v>0.009432782346012884</v>
+        <v>1.863232392478041E-05</v>
       </c>
       <c r="T2">
-        <v>0.009432782346012884</v>
+        <v>1.86323239247804E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.10455201828814</v>
+        <v>10.379369</v>
       </c>
       <c r="H3">
-        <v>6.10455201828814</v>
+        <v>31.138107</v>
       </c>
       <c r="I3">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449884</v>
       </c>
       <c r="J3">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449883</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.84333267304963</v>
+        <v>33.94639966666666</v>
       </c>
       <c r="N3">
-        <v>0.84333267304963</v>
+        <v>101.839199</v>
       </c>
       <c r="O3">
-        <v>0.02428330460387465</v>
+        <v>0.9734851120464462</v>
       </c>
       <c r="P3">
-        <v>0.02428330460387465</v>
+        <v>0.9734851120464463</v>
       </c>
       <c r="Q3">
-        <v>5.148168171353451</v>
+        <v>352.3422083618103</v>
       </c>
       <c r="R3">
-        <v>5.148168171353451</v>
+        <v>3171.079875256293</v>
       </c>
       <c r="S3">
-        <v>0.0002347598724620448</v>
+        <v>0.01571884972048356</v>
       </c>
       <c r="T3">
-        <v>0.0002347598724620448</v>
+        <v>0.01571884972048356</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>597.1554463913679</v>
+        <v>10.379369</v>
       </c>
       <c r="H4">
-        <v>597.1554463913679</v>
+        <v>31.138107</v>
       </c>
       <c r="I4">
-        <v>0.945691915096447</v>
+        <v>0.01614698522449884</v>
       </c>
       <c r="J4">
-        <v>0.945691915096447</v>
+        <v>0.01614698522449883</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.8855762133903</v>
+        <v>0.8843623333333334</v>
       </c>
       <c r="N4">
-        <v>33.8855762133903</v>
+        <v>2.653087</v>
       </c>
       <c r="O4">
-        <v>0.9757166953961254</v>
+        <v>0.02536096827965006</v>
       </c>
       <c r="P4">
-        <v>0.9757166953961254</v>
+        <v>0.02536096827965006</v>
       </c>
       <c r="Q4">
-        <v>20234.9563899358</v>
+        <v>9.179122987367668</v>
       </c>
       <c r="R4">
-        <v>20234.9563899358</v>
+        <v>82.61210688630901</v>
       </c>
       <c r="S4">
-        <v>0.9227273902607385</v>
+        <v>0.0004095031800904932</v>
       </c>
       <c r="T4">
-        <v>0.9227273902607385</v>
+        <v>0.0004095031800904931</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>597.1554463913679</v>
+        <v>604.0312093333333</v>
       </c>
       <c r="H5">
-        <v>597.1554463913679</v>
+        <v>1812.093628</v>
       </c>
       <c r="I5">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="J5">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.84333267304963</v>
+        <v>0.04023833333333333</v>
       </c>
       <c r="N5">
-        <v>0.84333267304963</v>
+        <v>0.120715</v>
       </c>
       <c r="O5">
-        <v>0.02428330460387465</v>
+        <v>0.001153919673903629</v>
       </c>
       <c r="P5">
-        <v>0.02428330460387465</v>
+        <v>0.001153919673903629</v>
       </c>
       <c r="Q5">
-        <v>503.6006988313774</v>
+        <v>24.30520914489111</v>
       </c>
       <c r="R5">
-        <v>503.6006988313774</v>
+        <v>218.74688230402</v>
       </c>
       <c r="S5">
-        <v>0.02296452483570859</v>
+        <v>0.001084314966832329</v>
       </c>
       <c r="T5">
-        <v>0.02296452483570859</v>
+        <v>0.001084314966832329</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.1881897991505</v>
+        <v>604.0312093333333</v>
       </c>
       <c r="H6">
-        <v>28.1881897991505</v>
+        <v>1812.093628</v>
       </c>
       <c r="I6">
-        <v>0.04464054268507817</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="J6">
-        <v>0.04464054268507817</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.8855762133903</v>
+        <v>33.94639966666666</v>
       </c>
       <c r="N6">
-        <v>33.8855762133903</v>
+        <v>101.839199</v>
       </c>
       <c r="O6">
-        <v>0.9757166953961254</v>
+        <v>0.9734851120464462</v>
       </c>
       <c r="P6">
-        <v>0.9757166953961254</v>
+        <v>0.9734851120464463</v>
       </c>
       <c r="Q6">
-        <v>955.1730537566253</v>
+        <v>20504.68484316933</v>
       </c>
       <c r="R6">
-        <v>955.1730537566253</v>
+        <v>184542.163588524</v>
       </c>
       <c r="S6">
-        <v>0.04355652278937414</v>
+        <v>0.9147642603314914</v>
       </c>
       <c r="T6">
-        <v>0.04355652278937414</v>
+        <v>0.9147642603314915</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.1881897991505</v>
+        <v>604.0312093333333</v>
       </c>
       <c r="H7">
-        <v>28.1881897991505</v>
+        <v>1812.093628</v>
       </c>
       <c r="I7">
-        <v>0.04464054268507817</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="J7">
-        <v>0.04464054268507817</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.84333267304963</v>
+        <v>0.8843623333333334</v>
       </c>
       <c r="N7">
-        <v>0.84333267304963</v>
+        <v>2.653087</v>
       </c>
       <c r="O7">
-        <v>0.02428330460387465</v>
+        <v>0.02536096827965006</v>
       </c>
       <c r="P7">
-        <v>0.02428330460387465</v>
+        <v>0.02536096827965006</v>
       </c>
       <c r="Q7">
-        <v>23.7720214517479</v>
+        <v>534.1824496921818</v>
       </c>
       <c r="R7">
-        <v>23.7720214517479</v>
+        <v>4807.642047229637</v>
       </c>
       <c r="S7">
-        <v>0.001084019895704021</v>
+        <v>0.02383118868747285</v>
       </c>
       <c r="T7">
-        <v>0.001084019895704021</v>
+        <v>0.02383118868747285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>28.39480333333333</v>
+      </c>
+      <c r="H8">
+        <v>85.18441</v>
+      </c>
+      <c r="I8">
+        <v>0.04417325078970442</v>
+      </c>
+      <c r="J8">
+        <v>0.04417325078970442</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.04023833333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.120715</v>
+      </c>
+      <c r="O8">
+        <v>0.001153919673903629</v>
+      </c>
+      <c r="P8">
+        <v>0.001153919673903629</v>
+      </c>
+      <c r="Q8">
+        <v>1.142559561461111</v>
+      </c>
+      <c r="R8">
+        <v>10.28303605315</v>
+      </c>
+      <c r="S8">
+        <v>5.097238314651894E-05</v>
+      </c>
+      <c r="T8">
+        <v>5.097238314651894E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>28.39480333333333</v>
+      </c>
+      <c r="H9">
+        <v>85.18441</v>
+      </c>
+      <c r="I9">
+        <v>0.04417325078970442</v>
+      </c>
+      <c r="J9">
+        <v>0.04417325078970442</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>33.94639966666666</v>
+      </c>
+      <c r="N9">
+        <v>101.839199</v>
+      </c>
+      <c r="O9">
+        <v>0.9734851120464462</v>
+      </c>
+      <c r="P9">
+        <v>0.9734851120464463</v>
+      </c>
+      <c r="Q9">
+        <v>963.9013424097321</v>
+      </c>
+      <c r="R9">
+        <v>8675.11208168759</v>
+      </c>
+      <c r="S9">
+        <v>0.04300200199447117</v>
+      </c>
+      <c r="T9">
+        <v>0.04300200199447118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>28.39480333333333</v>
+      </c>
+      <c r="H10">
+        <v>85.18441</v>
+      </c>
+      <c r="I10">
+        <v>0.04417325078970442</v>
+      </c>
+      <c r="J10">
+        <v>0.04417325078970442</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8843623333333334</v>
+      </c>
+      <c r="N10">
+        <v>2.653087</v>
+      </c>
+      <c r="O10">
+        <v>0.02536096827965006</v>
+      </c>
+      <c r="P10">
+        <v>0.02536096827965006</v>
+      </c>
+      <c r="Q10">
+        <v>25.11129453040778</v>
+      </c>
+      <c r="R10">
+        <v>226.00165077367</v>
+      </c>
+      <c r="S10">
+        <v>0.001120276412086721</v>
+      </c>
+      <c r="T10">
+        <v>0.001120276412086721</v>
       </c>
     </row>
   </sheetData>
